--- a/data/dictionnary/measles_ll_full_dict_en.xlsx
+++ b/data/dictionnary/measles_ll_full_dict_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugzsoubrier/GitHub/simulated-data/data/dictionnary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B77913-A70A-0E4C-BE89-DC653C1D7BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2E2A78-C8E7-6848-B4ED-B46976280D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="20" windowWidth="20200" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
   <si>
     <t>clean_variable_name</t>
   </si>
@@ -85,7 +85,7 @@
     <t>f || m</t>
   </si>
   <si>
-    <t>f || male || m || femme || homme || female</t>
+    <t>f || m || homme || female || male || femme</t>
   </si>
   <si>
     <t>age</t>
@@ -103,7 +103,7 @@
     <t>Age Units (months/years)</t>
   </si>
   <si>
-    <t>months || years</t>
+    <t>years || months</t>
   </si>
   <si>
     <t>months</t>
@@ -118,7 +118,7 @@
     <t>to be calculated</t>
   </si>
   <si>
-    <t>&lt; 6 months || 6 - 8 months || 1 - 4 years || 9 - 11 months || 15+ years || 5 - 14 years</t>
+    <t>1 - 4 years || &lt; 6 months || 5 - 14 years || 6 - 8 months || 9 - 11 months || 15+ years</t>
   </si>
   <si>
     <t>region</t>
@@ -151,10 +151,10 @@
     <t>Village/Commune</t>
   </si>
   <si>
-    <t>Dowo 1 || Do || Moïssala-Congo || Kabba 1 || Tétindaya || Ndohorininga || Silambim || Golkaba 1 &amp; 2 || Ferick Narai || Maïkan || Ferrick 2 || Maïbian || Daboro || Dowo 3 || Moukoubo || Bodo || Mossyara || Mounkoumba || Mousdan 1 || Dourbali || Paris Nadili || Sangana Koïtan || Maïnodjo || Maikolo || Maïbéré || Gourou || Moïssala village || Tannejo || Moïssala Est || Nodjibodo || Holnara || Ongtanian || Moissala 15 Ans || Gongo || Kabalai || Maimana || Ferrick Maïbodo || Bekodo || Maibara || Maïmbaye || Kaba Nadili || Danamadja || Wongteignan || Maiara || Moissala || Mousdan 2 || Monakoumba || Maibidi || Djaroua Ii || Guira || Moïssala || Maïbodo || Maïgara || Mourkoumba || Ferick Maibidi || Moïssala Poste || Doninga || Morko || Kiabe || Moussouda || Ndoninga || Sanodjo || Djaroua 2 || Maikan || Maimbere || Tetindaya || Maibodo || Ferrick 1 || Bara || Moussoro || Doyaba 1 || Doyaba 2 || Paredoumga I || Guirkian || Pari-Doumgaou || Nangaba || Pari Sounde || Paredoumga Ii || Bouna || Parsegue || Dinambo Mandoul || Mainodjo || Sako || Kaga || Ndinambo || Sangara 1 || Pari-Koyo || Dobo || Kou-Mandoul || Nangda || Maïyoro || Pari-Bi || Paresara || Dili || Dingamdili || Maïkolo || Mborogue 1 || Pari-Segue || Kou || Doubadene || Békoro || Koyo || Berigui 2 || Delingala || Pari -Sara || Bedana || Pari-Kinda || Paribi || Sanaga Carré || Bekoh || Sangara || Da || Berigui 1 || Gongo Ii || Kaba || Dobadene || Bouna Kaba || Bendene || Goumbala || Maita || Gameli || Komoto || Markala || Bekessi || Koudoti || Boro || Batta 1 || Bangoul || Maindou || Maïdjanga || Ngara || Ferme || Ganboro || Sandané || Niomi Ii || Kaba Iii || Gormongo || Niomi || Koyo 2 || Santenia Ii || Bendouba || Obolo || Maïta || Ngondere || Békamba || Bekamba Ii || Békourou || Kagala || Yingaro || Mbäla || Mara || Gangara || Kemkaouti 2 || Nganguiele || Sateignan 2 || Ngollo || Carre De Sana || Bekamba Iii || Bebo || Kemdah || Maïnéné || Moudjibe || Gongnodjo || Guidoboula || Sako-Danemadji || Ndoode || Doubadéné 4 || Deneyo || Sandéné || Bagdaye || Benguebe || Ndinayo || Sateigna 1 || Santenia I || Kaba 3 || Kambita || Goro || Ngoumou || Macta || Bekamba || Bédaya || Kandili || Ferrick Hia || Beko || Bedaya || Goumoumanga || Mongo || Kemdere || Takabiti || Koudote || Maimosso || Moissiara || Kemotah || Morkinan || Koumra || Maingara || Bekamba I || Ngomana || Matade || Bata || Boulkyan || Gandou || Koumaye || Ardef || Bébidja || Maitama || Wagal || Begue || Waidouaye || Koundi || Mayamtor || Beongo || Bekondjio || Morissop || Batta 2 || Gomana || Koto Koulou || Kol || Kenguele || Kane || Goulol || Boye || Yong || Kembita 1 || Bingueli || Maibouri || Koyo Centre || Dieye || Palimossi Ii || Moroutou || Palimossi I || Gonbe || Waifong || Ndilati || Goundi || Bolati I || Oumour || Ndiltayo || Soudaye || Komde || Goundi I || Morom I || Wambegue || Boyegue Ii</t>
-  </si>
-  <si>
-    <t>Dowo 1 || Do || Moïssala-Congo || Kabba 1 || Tétindaya || Ndohorininga || Silambim || Golkaba 1 &amp; 2 || Ferick Narai || Maïkan || Ferrick 2 || Maïbian || Daboro || Dowo 3 || Moukoubo || Bodo || Mossyara || Mounkoumba || Mousdan 1 || Dourbali || Paris Nadili || Sangana Koïtan || Maïnodjo || Maikolo || Maïbéré || Gourou || Moïssala village || Tannejo || Moïssala Est || Nodjibodo || Holnara || Ongtanian || Moissala 15 Ans || Gongo || Kabalai || Maimana || Ferrick Maïbodo || Bekodo || Maibara || Maïmbaye || Kaba Nadili || Danamadja || Wongteignan || Maiara || Moissala || Mousdan 2 || Monakoumba || Maibidi || Djaroua Ii || Guira || Moïssala || Maïbodo || Maïgara || Mourkoumba || Ferick Maibidi || Moïssala Poste || Doninga || Morko || Kiabe || Moussouda || Ndoninga || Sanodjo || Djaroua 2 || Maikan || Maimbere || Tetindaya || Maibodo || Ferrick 1 || Bara || Moussoro || Doyaba 1 || Doyaba 2 || Paredoumga I || Guirkian || Pari-Doumgaou || Nangaba || Pari Sounde || Paredoumga Ii || Bouna || Parsegue || Dinambo Mandoul || Mainodjo || Sako || Kaga || Ndinambo || Sangara 1 || Pari-Koyo || Dobo || Kou-Mandoul || Nangda || Maïyoro || Pari-Bi || Paresara || Dili || Dingamdili || Maïkolo || Mborogue 1 || Pari-Segue || Kou || Doubadene || Békoro || Koyo || Berigui 2 || Delingala || Pari -Sara || Bedana || Pari-Kinda || Paribi || Sanaga Carré || Bekoh || Sangara || Da || Berigui 1 || Gongo Ii || Kaba || Dobadene || Bouna Kaba || Bendene || Goumbala || Maita || Gameli || Komoto || Markala || Bekessi || Koudoti || Boro || Batta 1 || Bangoul || Maindou || Maïdjanga || Ngara || Ferme || Ganboro || Sandané || Niomi Ii || Kaba Iii || Gormongo || Niomi || Koyo 2 || Santenia Ii || Bendouba || Obolo || Maïta || Ngondere || Békamba || Bekamba Ii || Békourou || Kagala || Yingaro || Mbäla || Mara || Gangara || Kemkaouti 2 || Nganguiele || Sateignan 2 || Ngollo || Carre De Sana || Bekamba Iii || Bebo || Kemdah || Maïnéné || Moudjibe || Gongnodjo || Guidoboula || Sako-Danemadji || Ndoode || Doubadéné 4 || Deneyo || Sandéné || Bagdaye || Benguebe || Ndinayo || Sateigna 1 || Santenia I || Kaba 3 || Kambita || Goro || Ngoumou || Macta || Bekamba || Bédaya || Kandili || Ferrick Hia || Beko || Bedaya || Goumoumanga || Mongo || Kemdere || Takabiti || Koudote || Maimosso || Moissiara || Kemotah || Morkinan || Koumra || Maingara || Bekamba I || Ngomana || Matade || Bata || Boulkyan || Gandou || Koumaye || Ardef || Bébidja || Maitama || Wagal || Begue || Waidouaye || Koundi || Mayamtor || Beongo || Bekondjio || Morissop || Batta 2 || Gomana || Koto Koulou || Kol || Kenguele || Kane || Goulol || Boye || Yong || Kembita 1 || Bingueli || Maibouri || Koyo Centre || Dieye || Palimossi Ii || Moroutou || Palimossi I || Gonbe || Waifong || Ndilati || Goundi || Bolati I || Oumour || Ndiltayo || Soudaye || Komde || Goundi I || Morom I || Wambegue || Boyegue Ii || NA</t>
+    <t>Ndoninga || Doninga || Gourou || Maibodo || Maïgara || Bekodo || Tannejo || Maikan || Mounkoumba || Sanodjo || Sangana Koïtan || Moïssala Poste || Moukoubo || Ndohorininga || Moissala || Maïkan || Kiabe || Do || Ferick Maibidi || Daboro || Silambim || Ferrick 1 || Maibara || Morko || Maimana || Dourbali || Maïbéré || Dowo 1 || Mossyara || Maibidi || Tetindaya || Mousdan 1 || Maïnodjo || Maïbodo || Ferrick 2 || Ferrick Maïbodo || Ongtanian || Maiara || Wongteignan || Djaroua 2 || Maïbian || Maikolo || Djaroua Ii || Golkaba 1 &amp; 2 || Maimbere || Nodjibodo || Mourkoumba || Ferick Narai || Moïssala || Gongo || Dowo 3 || Danamadja || Monakoumba || Moussouda || Moïssala Est || Bodo || Guira || Mousdan 2 || Kabalai || Moissala 15 Ans || Kaba Nadili || Moïssala village || Holnara || Tétindaya || Moïssala-Congo || Kabba 1 || Paris Nadili || Maïmbaye || Doyaba 2 || Paresara || Pari-Doumgaou || Bara || Paredoumga I || Dobadene || Bekoh || Maïkolo || Bouna Kaba || Moussoro || Koyo || Parsegue || Pari-Koyo || Sangara || Paribi || Dobo || Pari-Segue || Sangara 1 || Doubadene || Kaba || Sanaga Carré || Guirkian || Pari-Kinda || Mborogue 1 || Doyaba 1 || Nangaba || Bendene || Da || Pari -Sara || Kou || Békoro || Bouna || Ndinambo || Nangda || Bedana || Pari Sounde || Berigui 1 || Paredoumga Ii || Kaga || Kou-Mandoul || Berigui 2 || Sako || Dili || Dingamdili || Mainodjo || Maïyoro || Dinambo Mandoul || Pari-Bi || Gongo Ii || Delingala || Bekessi || Kaba 3 || Boro || Maimosso || Sako-Danemadji || Kemkaouti 2 || Ferrick Hia || Markala || Ndoode || Koyo Centre || Maïta || Niomi || Bekamba Iii || Niomi Ii || Obolo || Yingaro || Doubadéné 4 || Nganguiele || Goumoumanga || Sateigna 1 || Koudote || Benguebe || Kagala || Goumbala || Gameli || Mbäla || Macta || Koumaye || Bebo || Kemdere || Koudoti || Ngara || Koyo 2 || Ganboro || Komoto || Ngoumou || Sandané || Békamba || Kemotah || Bangoul || Gongnodjo || Guidoboula || Kembita 1 || Batta 1 || Santenia Ii || Mara || Maïnéné || Bedaya || Santenia I || Boulkyan || Bekamba || Gangara || Maita || Maindou || Kambita || Batta 2 || Moudjibe || Deneyo || Takabiti || Ngondere || Ferme || Ngollo || Goro || Ndinayo || Beko || Bata || Kandili || Moissiara || Bekamba I || Morkinan || Carre De Sana || Kemdah || Maïdjanga || Mongo || Bébidja || Matade || Bendouba || Gormongo || Bekamba Ii || Beongo || Sateignan 2 || Bagdaye || Ngomana || Bingueli || Maibouri || Yong || Gonbe || Békourou || Kol || Sandéné || Kenguele || Mayamtor || Kaba Iii || Ardef || Koumra || Bédaya || Gandou || Bekondjio || Oumour || Morom I || Begue || Koundi || Goundi I || Waidouaye || Maingara || Komde || Boyegue Ii || Dieye || Palimossi I || Koto Koulou || Palimossi Ii || Goundi || Wambegue || Goulol || Boye || Bolati I || Moroutou || Maitama || Gomana || Morissop || Ndilati || Soudaye || Kane || Waifong || Ndiltayo || Wagal</t>
+  </si>
+  <si>
+    <t>Ndoninga || Doninga || Gourou || Maibodo || Maïgara || Bekodo || Tannejo || Maikan || Mounkoumba || Sanodjo || Sangana Koïtan || Moïssala Poste || Moukoubo || Ndohorininga || Moissala || Maïkan || Kiabe || Do || Ferick Maibidi || Daboro || Silambim || Ferrick 1 || Maibara || Morko || Maimana || Dourbali || Maïbéré || Dowo 1 || Mossyara || Maibidi || Tetindaya || Mousdan 1 || Maïnodjo || Maïbodo || Ferrick 2 || Ferrick Maïbodo || Ongtanian || Maiara || Wongteignan || Djaroua 2 || Maïbian || Maikolo || Djaroua Ii || Golkaba 1 &amp; 2 || Maimbere || Nodjibodo || Mourkoumba || Ferick Narai || Moïssala || Gongo || Dowo 3 || Danamadja || Monakoumba || Moussouda || Moïssala Est || Bodo || Guira || Mousdan 2 || Kabalai || Moissala 15 Ans || Kaba Nadili || Moïssala village || Holnara || Tétindaya || Moïssala-Congo || Kabba 1 || Paris Nadili || Maïmbaye || Doyaba 2 || Paresara || Pari-Doumgaou || Bara || Paredoumga I || Dobadene || Bekoh || Maïkolo || Bouna Kaba || Moussoro || Koyo || Parsegue || Pari-Koyo || Sangara || Paribi || Dobo || Pari-Segue || Sangara 1 || Doubadene || Kaba || Sanaga Carré || Guirkian || Pari-Kinda || Mborogue 1 || Doyaba 1 || Nangaba || Bendene || Da || Pari -Sara || Kou || Békoro || Bouna || Ndinambo || Nangda || Bedana || Pari Sounde || Berigui 1 || Paredoumga Ii || Kaga || Kou-Mandoul || Berigui 2 || Sako || Dili || Dingamdili || Mainodjo || Maïyoro || Dinambo Mandoul || Pari-Bi || Gongo Ii || Delingala || Bekessi || Kaba 3 || Boro || Maimosso || Sako-Danemadji || Kemkaouti 2 || Ferrick Hia || Markala || Ndoode || Koyo Centre || Maïta || Niomi || Bekamba Iii || Niomi Ii || Obolo || Yingaro || Doubadéné 4 || Nganguiele || Goumoumanga || Sateigna 1 || Koudote || Benguebe || Kagala || Goumbala || Gameli || Mbäla || Macta || Koumaye || Bebo || Kemdere || Koudoti || Ngara || Koyo 2 || Ganboro || Komoto || Ngoumou || Sandané || Békamba || Kemotah || Bangoul || Gongnodjo || Guidoboula || Kembita 1 || Batta 1 || Santenia Ii || Mara || Maïnéné || Bedaya || Santenia I || Boulkyan || Bekamba || Gangara || Maita || Maindou || Kambita || Batta 2 || Moudjibe || Deneyo || Takabiti || Ngondere || Ferme || Ngollo || Goro || Ndinayo || Beko || Bata || Kandili || Moissiara || Bekamba I || Morkinan || Carre De Sana || Kemdah || Maïdjanga || Mongo || Bébidja || Matade || Bendouba || Gormongo || Bekamba Ii || Beongo || Sateignan 2 || Bagdaye || Ngomana || Bingueli || Maibouri || Yong || Gonbe || Békourou || Kol || Sandéné || Kenguele || Mayamtor || Kaba Iii || Ardef || Koumra || Bédaya || Gandou || Bekondjio || Oumour || Morom I || Begue || Koundi || Goundi I || Waidouaye || Maingara || Komde || Boyegue Ii || Dieye || Palimossi I || Koto Koulou || Palimossi Ii || Goundi || Wambegue || Goulol || Boye || Bolati I || Moroutou || Maitama || Gomana || Morissop || Ndilati || Soudaye || Kane || Waifong || Ndiltayo || Wagal || NA</t>
   </si>
   <si>
     <t>date_onset</t>
@@ -172,7 +172,7 @@
     <t>Hospitalisation ("yes/no)</t>
   </si>
   <si>
-    <t>yes || no || NA</t>
+    <t>no || NA || yes</t>
   </si>
   <si>
     <t>date_admission</t>
@@ -181,7 +181,7 @@
     <t>Date of Admission in structure</t>
   </si>
   <si>
-    <t>2022-08-14 || NA || 2022-08-31 || 2022-09-02 || 2022-09-06 || 2022-09-15 || 2022-09-10 || 2022-09-16 || 2022-09-18 || 2022-09-14 || 2022-09-23 || 2022-09-27 || 2022-10-03 || 2022-09-28 || 2022-09-17 || 2022-10-04 || 2022-10-05 || 2022-10-01 || 2022-09-30 || 2022-09-29 || 2022-09-26 || 2022-10-08 || 2022-10-12 || 2022-10-11 || 2022-10-06 || 2022-10-20 || 2022-10-17 || 2022-10-13 || 2022-10-07 || 2022-10-15 || 2022-10-14 || 2022-10-22 || 2022-10-29 || 2022-10-25 || 2022-10-09 || 2022-10-28 || 2022-10-24 || 2022-10-21 || 2022-11-10 || 2022-11-03 || 2022-11-01 || 2022-10-26 || 2022-11-05 || 2022-11-13 || 2022-11-02 || 2022-10-27 || 2022-11-12 || 2022-11-21 || 2022-11-14 || 2022-11-19 || 2022-11-09 || 2022-11-15 || 2022-10-30 || 2022-11-11 || 2022-11-17 || 2022-11-22 || 2022-11-25 || 2022-11-06 || 2022-11-26 || 2022-11-18 || 2022-12-05 || 2022-12-07 || 2022-12-20 || 2022-11-07 || 2022-Nov-11 || 2022-11-24 || 2022-12-03 || 2022-12-10 || 2022-12-15 || 2022-12-17 || 2022-12-11 || 2022-11-20 || 2022-12-08 || 2022-12-04 || 2022-11-29 || 2022-12-23 || 2022-12-16 || 2022-11-23 || 2022-12-14 || 2022-12-02 || 2022-12-09 || 2022-12-06 || 2022-11-30 || 2022-12-22 || 2023-01-03 || 2022-12-18 || 2022-12-13 || 2022-12-01 || 2023-01-01 || 2022-12-29 || 2022-12-27 || 2022-12-25 || 2023-01-07 || 2022-12-24 || 2023-01-02 || 2023-01-06 || 2022-11-28 || 2022-12-26 || 2022-12-28 || 2023-01-10 || 2023-01-19 || 2023-01-11 || 2023-01-08 || 2023-01-14 || 2023-Jan-29 || 2023-01-16 || 2023-01-12 || 2023-02-02 || 2023-01-25 || 2023-01-09 || 2023-01-15 || 2023-01-26 || 2023-01-23 || 2023-01-20 || 2023-02-03 || 2023-02-01 || 2023-01-17 || 2023-01-13 || 2023-01-22 || 2022-12-19 || 2023-01-31 || 2023-01-21 || 2023-01-24 || 2023-01-27 || 2023-02-09 || 2023-01-18 || 2023-01-28 || 2023-02-04 || 2023-Jan-31 || 2023-02-10 || 2023-02-06 || 2023-Feb-02 || 2023-02-12 || 2023-02-18 || 2023-02-07 || 2023-02-11 || 2023-Feb-04 || 2023-02-17 || 2023-02-05 || 2023-01-30 || 2023-02-22 || 2023-02-16 || 2023-02-15 || 2023-02-14 || 2023-02-25 || 2023-02-28 || 2023-02-21 || 2023-02-26 || 2023-02-19 || 2023-02-24 || 2023-02-13 || 2023-02-08 || 2023-03-03 || 2023-03-05 || 2023-03-10 || 2023-03-09 || 2023-03-01 || 2023-02-23 || 2023-03-06 || 2023-03-08 || 2023-03-22 || 2023-03-18 || 2023-03-07 || 2023-03-04 || 2023-03-16 || 2023-03-11 || 2023-03-17 || 2023-03-15 || 2023-03-14 || 2023-03-02 || 2023-03-20 || 2023-03-13 || 2023-03-12 || 2023-02-27 || 2023-03-28 || 2023-Mar-11 || 2023-04-05 || 2023-03-23 || 2023-03-25 || 2023-03-31 || 2023-03-24 || 2023-04-09 || 2023-04-02 || 2023-03-21 || 2023-03-29 || 2023-04-04 || 2023-03-19 || 2023-03-27 || 2023-04-01 || 2023-04-13 || 2023-04-03 || 2023-04-07 || 2023-04-14 || 2023-04-18 || 2023-04-06 || 2023-04-12 || 2023-04-15 || 2023-04-20 || 2023-04-10 || 2023-04-11 || 2023-04-17 || 2023-04-21 || 2023-04-19 || 2023-03-26 || 2023-03-30 || 2023-04-08 || 2023-04-22 || 2023-05-01 || 2023-04-23 || 2023-04-24 || 2023-04-16 || 2023-05-02 || 2023-04-27 || 2023-04-26 || 2023-04-28 || 2023-05-07 || 2023-04-29 || 2023-05-05 || 2023-04-25 || 2023-04-30 || 2023-05-08 || 2023-05-15 || 2023-05-11 || 2023-05-09 || 2023-05-27 || 2023-05-06 || 2023-05-04 || 2023-05-03 || 2023-05-18 || 2023-05-22 || 2023-05-13 || 2023-05-14 || 2023-05-23 || 2023-05-24 || 2023-05-10 || 2023-05-17 || 2023-05-26 || 2023-Apr-30 || 2023-05-28 || 2023-05-20 || 2023-06-04 || 2023-05-21 || 2023-05-31 || 2023-05-19 || 2023-06-06 || 2023-06-03 || 2023-05-29 || 2023-05-25 || 2023-05-12 || 2023-06-01 || 2023-06-14 || 2023-06-05 || 2023-Jun-09 || 2023-06-13 || 2023-06-02 || 2023-05-30 || 2023-06-10 || 2023-06-12 || 2023-06-09 || 2023-06-24 || 2023-06-07 || 2023-07-06 || 2023-07-04 || 2023-06-29 || 2023-06-19 || 2023-06-21 || 2023-07-02 || 2023-06-23 || 2023-06-22 || 2023-06-28 || 2023-07-05 || 2023-06-30 || 2023-06-15 || 2023-06-11 || 2023-06-17 || 2023-07-08 || 2023-06-26 || 2023-07-13 || 2023-05-16 || 2023-06-16 || 2023-06-25 || 2023-06-20 || 2023-07-01 || 2023-06-27 || 2023-07-28 || 2023-07-20 || 2023-07-11 || 2023-07-15 || 2023-07-18 || 2023-07-07 || 2023-07-17 || 2023-07-31 || 2023-06-08 || 2023-07-09 || 2023-07-14 || 2023-07-16 || 2023-07-10 || 2023-08-11 || 2023-07-19 || 2023-07-23 || 2023-07-30 || 2023-07-24 || 2023-06-18 || 2023-07-21 || 2023-07-12 || 2023-07-27 || 2023-Jul-30 || 2023-08-06 || 2023-08-04 || 2023-07-26 || 2023-07-25 || 2023-07-29 || 2023-08-10 || 2023-08-01 || 2023-08-02 || 2023-08-03 || 2023-07-22 || 2023-08-12 || 2023-08-07 || 2023-08-14 || 2023-08-05 || 2023-08-08 || 2023-08-09 || 2023-08-16 || 2023-Aug-22 || 2023-08-20 || 2023-08-19 || 2023-08-15 || 2023-Aug-09 || 2023-08-17 || 2023-09-01 || 2023-07-03 || 2023-08-21 || 2023-08-23 || 2023-08-18 || 2023-09-06 || 2023-08-22 || 2023-08-27 || 2023-08-30 || 2023-09-04 || 2023-08-25 || 2023-09-02 || 2023-Aug-19 || 2023-09-05 || 2023-09-08 || 2023-08-24 || 2023-08-28 || 2023-08-29 || 2023-08-13 || 2023-09-11 || 2023-09-19 || 2023-09-20 || 2023-08-31 || 2023-09-03 || 2023-09-14 || 2023-09-18 || 2023-09-15 || 2023-09-10 || 2023-08-26 || 2023-09-21 || 2023-09-16 || 2023-09-23 || 2023-09-17 || 2023-09-22 || 2023-Jul-01 || 2023-09-09 || 2023-09-07 || 2023-09-26 || 2023-09-13 || 2023-09-25 || 2023-Sep-04 || 2023-10-04 || 2023-10-09 || 2023-09-29 || 2023-09-28 || 2023-10-06 || 2023-10-01 || 2023-09-12 || 2023-09-27 || 2023-Sep-06 || 2023-10-12 || 2023-10-02 || 2023-10-08 || 2023-10-05 || 2023-09-24 || 2023-10-13 || 2023-10-07 || 2023-Sep-17 || 2023-10-14 || 2023-10-15 || 2023-09-30 || 2023-10-11 || 2023-Sep-27 || 2023-10-16 || 2023-10-23 || 2023-10-20 || 2023-10-10 || 2023-10-21 || 2023-10-26 || 2023-10-03 || 2023-10-25 || 2023-10-27 || 2023-10-22 || 2023-10-24 || 2023-10-30 || 2023-10-17 || 2023-10-19 || 2023-Aug-05 || 2023-10-18 || 2023-10-29 || 2023-Nov-08 || 2023-10-28 || 2023-11-01 || 2023-11-04 || 2023-10-31 || 2023-11-02 || 2023-11-03 || 2023-11-06 || 2023-11-09 || 2023-11-21 || 2023-Oct-25 || 2023-Sep-14 || 2023-11-17 || 2023-11-19 || 2023-11-12 || 2023-11-07 || 2023-11-29 || 2023-11-28 || 2023-11-05 || 2023-11-08 || 2023-11-11 || 2023-11-15</t>
+    <t>NA || 2022-08-31 || 2022-09-06 || 2022-09-15 || 2022-Sep-10 || 2022-09-10 || 2022-09-16 || 2022-09-18 || 2022-09-14 || 2022-09-23 || 2022-09-27 || 2022-10-03 || 2022-09-28 || 2022-09-17 || 2022-10-04 || 2022-10-05 || 2022-09-30 || 2022-09-29 || 2022-10-08 || 2022-10-01 || 2022-09-26 || 2022-10-12 || 2022-10-11 || 2022-10-06 || 2022-10-02 || 2022-10-20 || 2022-10-17 || 2022-10-13 || 2022-10-07 || 2022-10-15 || 2022-10-14 || 2022-10-22 || 2022-10-29 || 2022-10-25 || 2022-10-09 || 2022-10-28 || 2022-11-02 || 2022-10-24 || 2022-10-21 || 2022-11-03 || 2022-11-01 || 2022-10-26 || 2022-11-05 || 2022-11-13 || 2022-11-10 || 2022-10-27 || 2022-11-08 || 2022-11-21 || 2022-11-14 || 2022-11-19 || 2022-11-09 || 2022-11-15 || 2022-10-30 || 2022-11-11 || 2022-11-17 || 2022-11-25 || 2022-11-20 || 2022-11-26 || 2022-11-18 || 2022-Nov-15 || 2022-12-07 || 2022-12-19 || 2022-11-07 || 2022-11-06 || 2022-11-24 || 2022-12-03 || 2022-12-15 || 2022-12-17 || 2022-12-11 || 2022-11-28 || 2022-12-08 || 2022-12-10 || 2022-12-04 || 2022-12-22 || 2022-12-23 || 2022-11-23 || 2022-12-14 || 2022-12-02 || 2022-11-29 || 2022-12-09 || 2022-11-22 || 2022-12-06 || 2022-11-30 || 2022-12-28 || 2022-12-21 || 2023-01-03 || 2022-12-18 || 2022-12-13 || 2022-12-31 || 2022-12-29 || 2022-12-27 || 2023-01-07 || 2022-12-24 || 2023-01-01 || 2022-12-20 || 2023-01-06 || 2022-12-26 || 2022-12-01 || 2022-12-25 || 2022-Dec-16 || 2023-01-19 || 2023-01-10 || 2023-01-11 || 2023-01-08 || 2023-01-14 || 2023-01-29 || 2023-01-13 || 2023-01-16 || 2023-01-12 || 2023-01-09 || 2023-02-02 || 2023-01-25 || 2023-01-15 || 2023-01-26 || 2023-01-23 || 2023-02-03 || 2023-02-01 || 2023-01-20 || 2023-01-22 || 2022-Dec-18 || 2023-01-31 || 2023-01-17 || 2023-01-21 || 2023-01-24 || 2023-02-09 || 2023-01-28 || 2023-02-08 || 2023-02-04 || 2023-01-27 || 2023-02-05 || 2023-01-18 || 2023-02-11 || 2023-02-06 || 2023-02-18 || 2023-02-12 || 2023-02-16 || 2023-01-30 || 2023-02-22 || 2023-02-17 || 2023-02-15 || 2023-02-07 || 2023-02-14 || 2023-02-24 || 2023-02-28 || 2023-02-21 || 2023-02-10 || 2023-02-26 || 2023-02-19 || 2023-02-13 || 2023-03-05 || 2023-03-10 || 2023-02-25 || 2023-03-09 || 2023-02-20 || 2023-Mar-01 || 2023-03-03 || 2023-02-23 || 2023-03-06 || 2023-03-18 || 2023-03-01 || 2023-03-07 || 2023-03-04 || 2023-03-16 || 2023-03-17 || 2023-03-15 || 2023-03-14 || 2023-03-08 || 2023-03-20 || 2023-03-23 || 2023-03-11 || 2023-02-27 || 2023-03-28 || 2023-04-04 || 2023-03-25 || 2023-03-13 || 2023-03-31 || 2023-04-05 || 2023-04-02 || 2023-03-21 || 2023-03-29 || 2023-03-24 || 2023-03-27 || 2023-04-01 || 2023-04-03 || 2023-04-09 || 2023-03-19 || 2023-04-13 || 2023-04-17 || 2023-04-18 || 2023-04-12 || 2023-04-06 || 2023-04-07 || 2023-04-15 || 2023-03-22 || 2023-04-10 || 2023-04-11 || 2023-04-14 || 2023-04-21 || 2023-04-19 || 2023-03-26 || 2023-04-08 || 2023-05-01 || 2023-04-23 || 2023-04-24 || 2023-04-27 || 2023-04-28 || 2023-05-07 || 2023-04-26 || 2023-05-02 || 2023-04-25 || 2023-05-05 || 2023-04-22 || 2023-04-16 || 2023-05-08 || 2023-05-15 || 2023-04-30 || 2023-05-10 || 2023-04-20 || 2023-05-26 || 2023-05-11 || 2023-05-04 || 2023-03-30 || 2023-05-03 || 2023-05-18 || 2023-05-21 || 2023-05-12 || 2023-05-14 || 2023-05-13 || 2023-05-06 || 2023-05-23 || 2023-04-29 || 2023-05-27 || 2023-05-24 || 2023-05-09 || 2023-05-17 || 2023-05-19 || 2023-05-22 || 2023-05-20 || 2023-06-03 || 2023-Apr-08 || 2023-05-31 || 2023-05-16 || 2023-Apr-17 || 2023-06-04 || 2023-05-25 || 2023-06-01 || 2023-05-29 || 2023-05-30 || 2023-06-13 || 2023-06-09 || 2023-06-10 || 2023-May-07 || 2023-06-06 || 2023-06-08 || 2023-06-24 || 2023-07-06 || 2023-07-04 || 2023-06-29 || 2023-06-12 || 2023-06-19 || 2023-06-14 || 2023-06-20 || 2023-06-22 || 2023-06-23 || 2023-06-30 || 2023-06-15 || 2023-06-16 || 2023-07-02 || 2023-07-07 || 2023-06-25 || 2023-06-21 || 2023-06-28 || 2023-07-12 || 2023-06-02 || 2023-07-05 || 2023-06-27 || 2023-07-27 || 2023-07-28 || 2023-07-20 || 2023-Jul-10 || 2023-07-14 || 2023-06-07 || 2023-06-26 || 2023-07-01 || 2023-07-16 || 2023-07-30 || 2023-06-05 || 2023-07-03 || 2023-07-11 || 2023-07-19 || 2023-05-28 || 2023-07-08 || 2023-07-10 || 2023-07-15 || 2023-07-17 || 2023-07-24 || 2023-06-17 || 2023-07-23 || 2023-07-21 || 2023-07-26 || 2023-07-31 || 2023-08-06 || 2023-08-04 || 2023-07-25 || 2023-08-10 || 2023-07-18 || 2023-08-01 || 2023-08-02 || 2023-07-29 || 2023-08-03 || 2023-07-22 || 2023-08-07 || 2023-06-11 || 2023-08-12 || 2023-08-05 || 2023-08-15 || 2023-06-18 || 2023-Jun-23 || 2023-08-08 || 2023-08-09 || 2023-08-13 || 2023-08-16 || 2023-08-21 || 2023-08-19 || 2023-08-14 || 2023-08-31 || 2023-07-09 || 2023-Aug-21 || 2023-08-23 || 2023-08-20 || 2023-08-17 || 2023-08-11 || 2023-08-18 || 2023-09-05 || 2023-09-02 || 2023-09-01 || 2023-08-27 || 2023-08-30 || 2023-09-04 || 2023-08-24 || 2023-07-13 || 2023-08-25 || 2023-08-22 || 2023-09-08 || 2023-08-26 || 2023-08-28 || 2023-09-19 || 2023-09-20 || 2023-09-03 || 2023-09-14 || 2023-09-10 || 2023-09-17 || 2023-09-15 || 2023-08-29 || 2023-09-07 || 2023-09-23 || 2023-09-21 || 2023-09-16 || 2023-09-06 || 2023-09-09 || 2023-09-13 || 2023-09-26 || 2023-Sep-06 || 2023-09-18 || 2023-09-25 || 2023-10-03 || 2023-10-09 || 2023-09-28 || 2023-09-27 || 2023-10-06 || 2023-09-30 || 2023-09-11 || 2023-09-12 || 2023-09-22 || 2023-10-05 || 2023-09-24 || 2023-10-13 || 2023-09-29 || 2023-10-04 || 2023-10-18 || 2023-10-02 || 2023-10-08 || 2023-10-07 || 2023-10-14 || 2023-10-11 || 2023-Sep-16 || 2023-Oct-15 || 2023-10-22 || 2023-10-19 || 2023-10-10 || 2023-10-15 || 2023-10-20 || 2023-10-16 || 2023-10-01 || 2023-10-26 || 2023-10-25 || 2023-10-21 || 2023-10-12 || 2023-10-23 || 2023-Sep-18 || 2023-10-30 || 2023-10-24 || 2023-10-17 || 2023-Sep-02 || 2023-10-28 || 2023-10-29 || 2023-11-08 || 2023-11-01 || 2023-11-04 || 2023-10-31 || 2023-11-02 || 2023-11-06 || 2023-11-09 || 2023-11-03 || 2023-11-05 || 2023-10-27 || 2023-11-16 || 2023-11-18 || 2023-11-12 || 2023-11-11 || 2023-11-19 || 2023-11-17 || 2023-11-21 || 2023-11-29 || 2023-11-28 || 2023-11-15</t>
   </si>
   <si>
     <t>health_facility_name</t>
@@ -190,7 +190,7 @@
     <t>MSF site</t>
   </si>
   <si>
-    <t>Moissala Est || NA || Dowo 3 || Hôpital du District de Moissala  || CS Silambi || Moissala Nord || Moissala Sud || Bouna || CS Berigui || Doubadene III || CS Bouna Public || CS Bekamba || CS Bangoul || Sateigna 1 || Bekourou || CS Bedaya Urbain || Bédaya || CS Koumra Est || Goundi || CS Goundi Est || CS Kol || CS Koumra Ouest || Koumra || CS Goundi Ouest || CS Goundi Sud || CS Koumra Nord || CS Goundi Nord</t>
+    <t>NA || Moissala Nord || Hôpital du District de Moissala  || Moissala Sud || Dowo 3 || CS Silambi || Moissala Est || CS Berigui || Doubadene III || Bouna || CS Bouna Public || CS Bekamba || CS Bangoul || Sateigna 1 || Bekourou || Bédaya || CS Bedaya Urbain || Koumra || CS Koumra Nord || CS Koumra Ouest || CS Koumra Est || CS Kol || CS Goundi Ouest || Goundi || CS Goundi Sud || CS Goundi Nord || CS Goundi Est</t>
   </si>
   <si>
     <t>malaria_rdt</t>
@@ -199,7 +199,7 @@
     <t>Malaria RDT</t>
   </si>
   <si>
-    <t>negative || positive || NA || inconclusive</t>
+    <t>negative || inconclusive || NA || positive</t>
   </si>
   <si>
     <t>fever</t>
@@ -208,39 +208,45 @@
     <t>Participant had fever ?</t>
   </si>
   <si>
+    <t>Yes || No || NA</t>
+  </si>
+  <si>
+    <t>rash</t>
+  </si>
+  <si>
+    <t>Participant had rash ?</t>
+  </si>
+  <si>
+    <t>Yes || NA || No</t>
+  </si>
+  <si>
+    <t>cough</t>
+  </si>
+  <si>
+    <t>Participant had cough ?</t>
+  </si>
+  <si>
+    <t>No || Yes || NA</t>
+  </si>
+  <si>
+    <t>red_eye</t>
+  </si>
+  <si>
+    <t>Participant had red_eye ?</t>
+  </si>
+  <si>
+    <t>NA || No || Yes</t>
+  </si>
+  <si>
+    <t>pneumonia</t>
+  </si>
+  <si>
+    <t>Participant had pneumonia ?</t>
+  </si>
+  <si>
     <t>No || NA || Yes</t>
   </si>
   <si>
-    <t>rash</t>
-  </si>
-  <si>
-    <t>Participant had rash ?</t>
-  </si>
-  <si>
-    <t>No || Yes || NA</t>
-  </si>
-  <si>
-    <t>cough</t>
-  </si>
-  <si>
-    <t>Participant had cough ?</t>
-  </si>
-  <si>
-    <t>NA || No || Yes</t>
-  </si>
-  <si>
-    <t>red_eye</t>
-  </si>
-  <si>
-    <t>Participant had red_eye ?</t>
-  </si>
-  <si>
-    <t>pneumonia</t>
-  </si>
-  <si>
-    <t>Participant had pneumonia ?</t>
-  </si>
-  <si>
     <t>encephalitis</t>
   </si>
   <si>
@@ -256,10 +262,10 @@
     <t>muac_cat</t>
   </si>
   <si>
-    <t>Green (125+ mm) || Yellow (115 - 124 mm) || Red (&lt;115 mm)</t>
-  </si>
-  <si>
-    <t>Green (125+ mm) || Yellow (115 - 124 mm) || Red (&lt;115 mm) || NA</t>
+    <t>Green (125+ mm) || Red (&lt;115 mm) || Yellow (115 - 124 mm)</t>
+  </si>
+  <si>
+    <t>Green (125+ mm) || Red (&lt;115 mm) || Yellow (115 - 124 mm) || NA</t>
   </si>
   <si>
     <t>vacc_status</t>
@@ -268,7 +274,7 @@
     <t>Vaccination status</t>
   </si>
   <si>
-    <t>No || Uncertain || NA || Yes - oral || Yes - card</t>
+    <t>No || Yes - oral || Uncertain || Yes - card || NA</t>
   </si>
   <si>
     <t>vacc_doses</t>
@@ -277,7 +283,7 @@
     <t>Vaccination dosage</t>
   </si>
   <si>
-    <t>NA || Uncertain || 2 doses || 1 dose</t>
+    <t>NA || 1 dose || 2 doses || Uncertain</t>
   </si>
   <si>
     <t>outcome</t>
@@ -286,10 +292,10 @@
     <t>Patient outcome (death/recovered/LAMA)</t>
   </si>
   <si>
-    <t>recovered || dead || left against medical advice || NA</t>
-  </si>
-  <si>
-    <t>NA || recovered || gueri || died || mort || death || lost</t>
+    <t>recovered || dead || NA || left against medical advice</t>
+  </si>
+  <si>
+    <t>recovered || death || NA || mort || died || gueri || lost</t>
   </si>
   <si>
     <t>date_outcome</t>
@@ -301,7 +307,7 @@
     <t>epi_classification</t>
   </si>
   <si>
-    <t>confirmed || probable || suspected || NA</t>
+    <t>suspected || NA || probable || confirmed</t>
   </si>
   <si>
     <t>Epidemiological index for all cases</t>
@@ -355,6 +361,9 @@
     <t>Date of hospitalisation in health facility</t>
   </si>
   <si>
+    <t>wrong class</t>
+  </si>
+  <si>
     <t>MSF facility name</t>
   </si>
   <si>
@@ -398,9 +407,6 @@
   </si>
   <si>
     <t>Epidemiological classification</t>
-  </si>
-  <si>
-    <t>wrong class</t>
   </si>
 </sst>
 </file>
@@ -755,23 +761,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" customWidth="1"/>
-    <col min="6" max="6" width="36.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="26" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" customWidth="1"/>
+    <col min="11" max="11" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -823,10 +829,10 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -852,7 +858,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -878,10 +884,10 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -913,10 +919,10 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -942,7 +948,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -964,9 +970,6 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
@@ -974,15 +977,12 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
@@ -1006,10 +1006,10 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -1041,10 +1041,10 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1076,7 +1076,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1108,10 +1108,10 @@
         <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1137,16 +1137,16 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="I12">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J12" t="s">
         <v>50</v>
@@ -1169,19 +1169,19 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13">
-        <v>2943</v>
+        <v>3231</v>
       </c>
       <c r="I13">
-        <v>3042</v>
+        <v>3342</v>
       </c>
       <c r="K13" t="s">
         <v>53</v>
@@ -1201,16 +1201,16 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14">
-        <v>2943</v>
+        <v>3231</v>
       </c>
       <c r="I14">
-        <v>3043</v>
+        <v>3342</v>
       </c>
       <c r="J14" t="s">
         <v>56</v>
@@ -1233,16 +1233,16 @@
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="I15">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="J15" t="s">
         <v>59</v>
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="K16" t="s">
         <v>62</v>
@@ -1294,7 +1294,7 @@
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>630</v>
+        <v>691</v>
       </c>
       <c r="K17" t="s">
         <v>65</v>
@@ -1323,7 +1323,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>731</v>
+        <v>652</v>
       </c>
       <c r="K18" t="s">
         <v>68</v>
@@ -1352,7 +1352,7 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -1361,18 +1361,18 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="K19" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1381,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -1390,18 +1390,18 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1410,7 +1410,7 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -1419,18 +1419,18 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>764</v>
+        <v>822</v>
       </c>
       <c r="K21" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1439,7 +1439,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -1453,10 +1453,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1465,7 +1462,7 @@
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -1473,22 +1470,19 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>30</v>
-      </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -1497,30 +1491,30 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24">
-        <v>798</v>
+        <v>633</v>
       </c>
       <c r="I24">
-        <v>847</v>
+        <v>682</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -1529,30 +1523,30 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
       </c>
       <c r="H25">
-        <v>4698</v>
+        <v>4661</v>
       </c>
       <c r="I25">
-        <v>4843</v>
+        <v>4805</v>
       </c>
       <c r="J25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -1561,33 +1555,33 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
       </c>
       <c r="H26">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I26">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="J26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
@@ -1596,27 +1590,24 @@
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
       </c>
       <c r="H27">
-        <v>2929</v>
+        <v>3356</v>
       </c>
       <c r="I27">
-        <v>3031</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -1625,22 +1616,19 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
       </c>
       <c r="H28">
-        <v>145</v>
-      </c>
-      <c r="I28">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="J28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
